--- a/src/test/resources/logs/log.xlsx
+++ b/src/test/resources/logs/log.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="36">
   <si>
     <t>Scenario Id</t>
   </si>
@@ -89,6 +89,39 @@
   </si>
   <si>
     <t>52 seconds</t>
+  </si>
+  <si>
+    <t>;</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>16:42:38.5233661</t>
+  </si>
+  <si>
+    <t>16:42:51.1778725</t>
+  </si>
+  <si>
+    <t>12654 miliseconds</t>
+  </si>
+  <si>
+    <t>undefined</t>
+  </si>
+  <si>
+    <t>;ghdgh</t>
+  </si>
+  <si>
+    <t>ghdgh</t>
+  </si>
+  <si>
+    <t>16:44:18.467181</t>
+  </si>
+  <si>
+    <t>16:44:35.0239037</t>
+  </si>
+  <si>
+    <t>16556 miliseconds</t>
   </si>
 </sst>
 </file>
@@ -1034,7 +1067,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:G2"/>
@@ -1210,6 +1243,52 @@
         <v>13</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/src/test/resources/logs/log.xlsx
+++ b/src/test/resources/logs/log.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="266">
   <si>
     <t>Scenario Id</t>
   </si>
@@ -122,6 +122,696 @@
   </si>
   <si>
     <t>16556 miliseconds</t>
+  </si>
+  <si>
+    <t>10:35:05.1789439</t>
+  </si>
+  <si>
+    <t>10:35:16.8479171</t>
+  </si>
+  <si>
+    <t>11668 miliseconds</t>
+  </si>
+  <si>
+    <t>10:35:18.0969453</t>
+  </si>
+  <si>
+    <t>10:35:24.2347302</t>
+  </si>
+  <si>
+    <t>6137 miliseconds</t>
+  </si>
+  <si>
+    <t>menu-functionality;menu-in-desktop-mode</t>
+  </si>
+  <si>
+    <t>Menu in desktop mode</t>
+  </si>
+  <si>
+    <t>chrome</t>
+  </si>
+  <si>
+    <t>11:25:56.8904136</t>
+  </si>
+  <si>
+    <t>11:26:21.2739569</t>
+  </si>
+  <si>
+    <t>24383 miliseconds</t>
+  </si>
+  <si>
+    <t>11:32:24.2955368</t>
+  </si>
+  <si>
+    <t>11:33:10.817867</t>
+  </si>
+  <si>
+    <t>46522 miliseconds</t>
+  </si>
+  <si>
+    <t>11:57:17.2415755</t>
+  </si>
+  <si>
+    <t>11:57:40.221727</t>
+  </si>
+  <si>
+    <t>22980 miliseconds</t>
+  </si>
+  <si>
+    <t>13:37:33.0219153</t>
+  </si>
+  <si>
+    <t>13:37:44.1849285</t>
+  </si>
+  <si>
+    <t>11163 miliseconds</t>
+  </si>
+  <si>
+    <t>13:37:52.5575798</t>
+  </si>
+  <si>
+    <t>13:38:02.2663262</t>
+  </si>
+  <si>
+    <t>9708 miliseconds</t>
+  </si>
+  <si>
+    <t>13:38:45.2628414</t>
+  </si>
+  <si>
+    <t>13:38:52.3558661</t>
+  </si>
+  <si>
+    <t>7093 miliseconds</t>
+  </si>
+  <si>
+    <t>13:39:34.3493978</t>
+  </si>
+  <si>
+    <t>13:39:45.1743176</t>
+  </si>
+  <si>
+    <t>10824 miliseconds</t>
+  </si>
+  <si>
+    <t>13:39:57.4330064</t>
+  </si>
+  <si>
+    <t>13:40:27.3815746</t>
+  </si>
+  <si>
+    <t>29948 miliseconds</t>
+  </si>
+  <si>
+    <t>menu-functionality;menu-in-mobil-mode</t>
+  </si>
+  <si>
+    <t>Menu in mobil mode</t>
+  </si>
+  <si>
+    <t>14:04:06.1955869</t>
+  </si>
+  <si>
+    <t>14:04:42.4482714</t>
+  </si>
+  <si>
+    <t>36252 miliseconds</t>
+  </si>
+  <si>
+    <t>14:21:51.0238473</t>
+  </si>
+  <si>
+    <t>14:22:00.5231984</t>
+  </si>
+  <si>
+    <t>9499 miliseconds</t>
+  </si>
+  <si>
+    <t>14:22:07.5830414</t>
+  </si>
+  <si>
+    <t>14:22:13.423001</t>
+  </si>
+  <si>
+    <t>5839 miliseconds</t>
+  </si>
+  <si>
+    <t>14:22:18.2703834</t>
+  </si>
+  <si>
+    <t>14:22:40.4361579</t>
+  </si>
+  <si>
+    <t>22165 miliseconds</t>
+  </si>
+  <si>
+    <t>14:24:05.3296424</t>
+  </si>
+  <si>
+    <t>14:24:40.6216053</t>
+  </si>
+  <si>
+    <t>35291 miliseconds</t>
+  </si>
+  <si>
+    <t>14:38:35.2516365</t>
+  </si>
+  <si>
+    <t>14:39:27.7076702</t>
+  </si>
+  <si>
+    <t>52456 miliseconds</t>
+  </si>
+  <si>
+    <t>14:42:15.2767719</t>
+  </si>
+  <si>
+    <t>14:42:50.5967773</t>
+  </si>
+  <si>
+    <t>35320 miliseconds</t>
+  </si>
+  <si>
+    <t>14:48:26.9866405</t>
+  </si>
+  <si>
+    <t>14:49:14.216271</t>
+  </si>
+  <si>
+    <t>47229 miliseconds</t>
+  </si>
+  <si>
+    <t>14:49:15.2413441</t>
+  </si>
+  <si>
+    <t>14:50:12.1479521</t>
+  </si>
+  <si>
+    <t>56906 miliseconds</t>
+  </si>
+  <si>
+    <t>14:50:12.8053407</t>
+  </si>
+  <si>
+    <t>14:51:10.7733601</t>
+  </si>
+  <si>
+    <t>57968 miliseconds</t>
+  </si>
+  <si>
+    <t>14:52:03.2531354</t>
+  </si>
+  <si>
+    <t>14:52:39.5254451</t>
+  </si>
+  <si>
+    <t>36272 miliseconds</t>
+  </si>
+  <si>
+    <t>14:52:40.5284403</t>
+  </si>
+  <si>
+    <t>14:53:15.9828089</t>
+  </si>
+  <si>
+    <t>35454 miliseconds</t>
+  </si>
+  <si>
+    <t>14:55:01.9487004</t>
+  </si>
+  <si>
+    <t>14:55:24.6479668</t>
+  </si>
+  <si>
+    <t>22699 miliseconds</t>
+  </si>
+  <si>
+    <t>15:00:58.9806954</t>
+  </si>
+  <si>
+    <t>15:01:42.8536887</t>
+  </si>
+  <si>
+    <t>43872 miliseconds</t>
+  </si>
+  <si>
+    <t>15:01:43.888135</t>
+  </si>
+  <si>
+    <t>15:02:18.5833929</t>
+  </si>
+  <si>
+    <t>34695 miliseconds</t>
+  </si>
+  <si>
+    <t>15:02:27.3715041</t>
+  </si>
+  <si>
+    <t>15:03:08.8909441</t>
+  </si>
+  <si>
+    <t>41519 miliseconds</t>
+  </si>
+  <si>
+    <t>15:03:09.8953256</t>
+  </si>
+  <si>
+    <t>15:03:37.4257135</t>
+  </si>
+  <si>
+    <t>27530 miliseconds</t>
+  </si>
+  <si>
+    <t>15:42:20.9526597</t>
+  </si>
+  <si>
+    <t>15:42:59.2385873</t>
+  </si>
+  <si>
+    <t>38285 miliseconds</t>
+  </si>
+  <si>
+    <t>15:53:46.4662706</t>
+  </si>
+  <si>
+    <t>15:54:12.633029</t>
+  </si>
+  <si>
+    <t>26166 miliseconds</t>
+  </si>
+  <si>
+    <t>15:55:55.6281193</t>
+  </si>
+  <si>
+    <t>15:56:17.5502262</t>
+  </si>
+  <si>
+    <t>21922 miliseconds</t>
+  </si>
+  <si>
+    <t>16:00:44.5536265</t>
+  </si>
+  <si>
+    <t>16:01:08.2165064</t>
+  </si>
+  <si>
+    <t>23662 miliseconds</t>
+  </si>
+  <si>
+    <t>16:03:47.093189</t>
+  </si>
+  <si>
+    <t>16:04:14.8692766</t>
+  </si>
+  <si>
+    <t>27776 miliseconds</t>
+  </si>
+  <si>
+    <t>16:09:31.9051949</t>
+  </si>
+  <si>
+    <t>16:09:52.7051762</t>
+  </si>
+  <si>
+    <t>20799 miliseconds</t>
+  </si>
+  <si>
+    <t>16:54:28.6809697</t>
+  </si>
+  <si>
+    <t>16:54:56.9152409</t>
+  </si>
+  <si>
+    <t>28234 miliseconds</t>
+  </si>
+  <si>
+    <t>17:02:04.8070287</t>
+  </si>
+  <si>
+    <t>17:02:13.1448343</t>
+  </si>
+  <si>
+    <t>8337 miliseconds</t>
+  </si>
+  <si>
+    <t>17:02:30.7100715</t>
+  </si>
+  <si>
+    <t>17:02:49.7546419</t>
+  </si>
+  <si>
+    <t>19044 miliseconds</t>
+  </si>
+  <si>
+    <t>17:05:43.2759409</t>
+  </si>
+  <si>
+    <t>17:06:03.1570424</t>
+  </si>
+  <si>
+    <t>19881 miliseconds</t>
+  </si>
+  <si>
+    <t>17:09:34.442808</t>
+  </si>
+  <si>
+    <t>17:09:41.2741517</t>
+  </si>
+  <si>
+    <t>6831 miliseconds</t>
+  </si>
+  <si>
+    <t>17:21:51.9331334</t>
+  </si>
+  <si>
+    <t>17:22:23.6536525</t>
+  </si>
+  <si>
+    <t>31720 miliseconds</t>
+  </si>
+  <si>
+    <t>17:22:52.29266</t>
+  </si>
+  <si>
+    <t>17:23:11.1772445</t>
+  </si>
+  <si>
+    <t>18884 miliseconds</t>
+  </si>
+  <si>
+    <t>17:23:12.2192492</t>
+  </si>
+  <si>
+    <t>17:23:33.3054421</t>
+  </si>
+  <si>
+    <t>21086 miliseconds</t>
+  </si>
+  <si>
+    <t>17:23:33.9770538</t>
+  </si>
+  <si>
+    <t>17:23:51.1065545</t>
+  </si>
+  <si>
+    <t>17129 miliseconds</t>
+  </si>
+  <si>
+    <t>17:23:51.7777607</t>
+  </si>
+  <si>
+    <t>17:24:18.0896003</t>
+  </si>
+  <si>
+    <t>26311 miliseconds</t>
+  </si>
+  <si>
+    <t>17:24:18.7617777</t>
+  </si>
+  <si>
+    <t>17:24:36.8982603</t>
+  </si>
+  <si>
+    <t>18136 miliseconds</t>
+  </si>
+  <si>
+    <t>17:48:32.3642263</t>
+  </si>
+  <si>
+    <t>17:48:59.3122404</t>
+  </si>
+  <si>
+    <t>26948 miliseconds</t>
+  </si>
+  <si>
+    <t>17:49:55.5278614</t>
+  </si>
+  <si>
+    <t>17:50:17.332299</t>
+  </si>
+  <si>
+    <t>21804 miliseconds</t>
+  </si>
+  <si>
+    <t>17:50:18.343688</t>
+  </si>
+  <si>
+    <t>17:50:44.3778346</t>
+  </si>
+  <si>
+    <t>26034 miliseconds</t>
+  </si>
+  <si>
+    <t>17:51:10.7661674</t>
+  </si>
+  <si>
+    <t>17:52:13.1838588</t>
+  </si>
+  <si>
+    <t>62417 miliseconds</t>
+  </si>
+  <si>
+    <t>19:08:02.2471784</t>
+  </si>
+  <si>
+    <t>19:08:26.4535349</t>
+  </si>
+  <si>
+    <t>24206 miliseconds</t>
+  </si>
+  <si>
+    <t>19:08:49.027767</t>
+  </si>
+  <si>
+    <t>19:09:14.4487278</t>
+  </si>
+  <si>
+    <t>25420 miliseconds</t>
+  </si>
+  <si>
+    <t>19:09:26.699403</t>
+  </si>
+  <si>
+    <t>19:09:51.6126864</t>
+  </si>
+  <si>
+    <t>24913 miliseconds</t>
+  </si>
+  <si>
+    <t>19:10:05.2341011</t>
+  </si>
+  <si>
+    <t>19:10:29.2144995</t>
+  </si>
+  <si>
+    <t>23980 miliseconds</t>
+  </si>
+  <si>
+    <t>19:10:45.6889532</t>
+  </si>
+  <si>
+    <t>19:11:22.0985554</t>
+  </si>
+  <si>
+    <t>36409 miliseconds</t>
+  </si>
+  <si>
+    <t>19:19:47.340306</t>
+  </si>
+  <si>
+    <t>19:20:14.6890757</t>
+  </si>
+  <si>
+    <t>27348 miliseconds</t>
+  </si>
+  <si>
+    <t>19:20:24.2604212</t>
+  </si>
+  <si>
+    <t>19:21:11.2103659</t>
+  </si>
+  <si>
+    <t>46949 miliseconds</t>
+  </si>
+  <si>
+    <t>19:21:21.9899223</t>
+  </si>
+  <si>
+    <t>19:21:51.7450302</t>
+  </si>
+  <si>
+    <t>29755 miliseconds</t>
+  </si>
+  <si>
+    <t>19:22:09.1270737</t>
+  </si>
+  <si>
+    <t>19:22:34.3947503</t>
+  </si>
+  <si>
+    <t>25267 miliseconds</t>
+  </si>
+  <si>
+    <t>19:24:00.032629</t>
+  </si>
+  <si>
+    <t>19:24:22.6361937</t>
+  </si>
+  <si>
+    <t>22603 miliseconds</t>
+  </si>
+  <si>
+    <t>19:24:23.6470074</t>
+  </si>
+  <si>
+    <t>19:24:48.4652942</t>
+  </si>
+  <si>
+    <t>24818 miliseconds</t>
+  </si>
+  <si>
+    <t>19:24:58.8844754</t>
+  </si>
+  <si>
+    <t>19:25:34.3968308</t>
+  </si>
+  <si>
+    <t>35512 miliseconds</t>
+  </si>
+  <si>
+    <t>19:28:06.1364679</t>
+  </si>
+  <si>
+    <t>19:28:39.8073736</t>
+  </si>
+  <si>
+    <t>33670 miliseconds</t>
+  </si>
+  <si>
+    <t>19:28:40.8382385</t>
+  </si>
+  <si>
+    <t>19:29:15.0331078</t>
+  </si>
+  <si>
+    <t>34194 miliseconds</t>
+  </si>
+  <si>
+    <t>19:30:00.5590179</t>
+  </si>
+  <si>
+    <t>19:30:38.0230656</t>
+  </si>
+  <si>
+    <t>37464 miliseconds</t>
+  </si>
+  <si>
+    <t>19:32:17.3999635</t>
+  </si>
+  <si>
+    <t>19:32:48.8721497</t>
+  </si>
+  <si>
+    <t>31472 miliseconds</t>
+  </si>
+  <si>
+    <t>19:32:49.8882791</t>
+  </si>
+  <si>
+    <t>19:33:17.2414797</t>
+  </si>
+  <si>
+    <t>27353 miliseconds</t>
+  </si>
+  <si>
+    <t>19:33:17.9275884</t>
+  </si>
+  <si>
+    <t>19:33:45.1437526</t>
+  </si>
+  <si>
+    <t>27216 miliseconds</t>
+  </si>
+  <si>
+    <t>19:34:13.6345417</t>
+  </si>
+  <si>
+    <t>19:34:37.6951047</t>
+  </si>
+  <si>
+    <t>24060 miliseconds</t>
+  </si>
+  <si>
+    <t>19:34:38.3383692</t>
+  </si>
+  <si>
+    <t>19:35:06.9521208</t>
+  </si>
+  <si>
+    <t>28613 miliseconds</t>
+  </si>
+  <si>
+    <t>19:40:23.7439999</t>
+  </si>
+  <si>
+    <t>19:40:48.3079767</t>
+  </si>
+  <si>
+    <t>24563 miliseconds</t>
+  </si>
+  <si>
+    <t>19:41:02.4629098</t>
+  </si>
+  <si>
+    <t>19:41:33.0798996</t>
+  </si>
+  <si>
+    <t>30616 miliseconds</t>
+  </si>
+  <si>
+    <t>19:41:34.1383604</t>
+  </si>
+  <si>
+    <t>19:42:06.3628604</t>
+  </si>
+  <si>
+    <t>32224 miliseconds</t>
+  </si>
+  <si>
+    <t>19:42:07.0387259</t>
+  </si>
+  <si>
+    <t>19:42:32.9573908</t>
+  </si>
+  <si>
+    <t>25918 miliseconds</t>
+  </si>
+  <si>
+    <t>19:42:33.6294195</t>
+  </si>
+  <si>
+    <t>19:43:04.4409024</t>
+  </si>
+  <si>
+    <t>30811 miliseconds</t>
+  </si>
+  <si>
+    <t>19:43:05.1179523</t>
+  </si>
+  <si>
+    <t>19:43:51.5278527</t>
+  </si>
+  <si>
+    <t>46409 miliseconds</t>
+  </si>
+  <si>
+    <t>19:43:52.1764344</t>
+  </si>
+  <si>
+    <t>19:44:25.7584048</t>
+  </si>
+  <si>
+    <t>33581 miliseconds</t>
   </si>
 </sst>
 </file>
@@ -131,8 +821,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -140,50 +830,6 @@
       <color indexed="8"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -205,15 +851,42 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,45 +900,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,8 +922,63 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -303,13 +993,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -327,127 +1161,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,31 +1173,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,16 +1187,49 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -530,8 +1253,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -546,201 +1284,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1067,19 +1757,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G2"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="18.7142857142857" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="17.7142857142857" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="15.1428571428571" collapsed="true"/>
     <col min="4" max="5" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="10.1428571428571" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1151,7 +1841,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1174,7 +1864,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1197,7 +1887,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1220,7 +1910,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1243,7 +1933,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -1266,7 +1956,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -1286,6 +1976,1731 @@
         <v>35</v>
       </c>
       <c r="G9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" t="s">
+        <v>62</v>
+      </c>
+      <c r="G17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" t="s">
+        <v>65</v>
+      </c>
+      <c r="G18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" t="s">
+        <v>72</v>
+      </c>
+      <c r="F20" t="s">
+        <v>73</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" t="s">
+        <v>74</v>
+      </c>
+      <c r="E21" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" t="s">
+        <v>76</v>
+      </c>
+      <c r="G21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22" t="s">
+        <v>79</v>
+      </c>
+      <c r="G22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" t="s">
+        <v>81</v>
+      </c>
+      <c r="F23" t="s">
+        <v>82</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" t="s">
+        <v>83</v>
+      </c>
+      <c r="E24" t="s">
+        <v>84</v>
+      </c>
+      <c r="F24" t="s">
+        <v>85</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" t="s">
+        <v>86</v>
+      </c>
+      <c r="E25" t="s">
+        <v>87</v>
+      </c>
+      <c r="F25" t="s">
+        <v>88</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" t="s">
+        <v>89</v>
+      </c>
+      <c r="E26" t="s">
+        <v>90</v>
+      </c>
+      <c r="F26" t="s">
+        <v>91</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" t="s">
+        <v>92</v>
+      </c>
+      <c r="E27" t="s">
+        <v>93</v>
+      </c>
+      <c r="F27" t="s">
+        <v>94</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" t="s">
+        <v>95</v>
+      </c>
+      <c r="E28" t="s">
+        <v>96</v>
+      </c>
+      <c r="F28" t="s">
+        <v>97</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" t="s">
+        <v>98</v>
+      </c>
+      <c r="E29" t="s">
+        <v>99</v>
+      </c>
+      <c r="F29" t="s">
+        <v>100</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" t="s">
+        <v>101</v>
+      </c>
+      <c r="E30" t="s">
+        <v>102</v>
+      </c>
+      <c r="F30" t="s">
+        <v>103</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" t="s">
+        <v>104</v>
+      </c>
+      <c r="E31" t="s">
+        <v>105</v>
+      </c>
+      <c r="F31" t="s">
+        <v>106</v>
+      </c>
+      <c r="G31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" t="s">
+        <v>107</v>
+      </c>
+      <c r="E32" t="s">
+        <v>108</v>
+      </c>
+      <c r="F32" t="s">
+        <v>109</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33" t="s">
+        <v>110</v>
+      </c>
+      <c r="E33" t="s">
+        <v>111</v>
+      </c>
+      <c r="F33" t="s">
+        <v>112</v>
+      </c>
+      <c r="G33" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34" t="s">
+        <v>113</v>
+      </c>
+      <c r="E34" t="s">
+        <v>114</v>
+      </c>
+      <c r="F34" t="s">
+        <v>115</v>
+      </c>
+      <c r="G34" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" t="s">
+        <v>116</v>
+      </c>
+      <c r="E35" t="s">
+        <v>117</v>
+      </c>
+      <c r="F35" t="s">
+        <v>118</v>
+      </c>
+      <c r="G35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36" t="s">
+        <v>119</v>
+      </c>
+      <c r="E36" t="s">
+        <v>120</v>
+      </c>
+      <c r="F36" t="s">
+        <v>121</v>
+      </c>
+      <c r="G36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" t="s">
+        <v>44</v>
+      </c>
+      <c r="D37" t="s">
+        <v>122</v>
+      </c>
+      <c r="E37" t="s">
+        <v>123</v>
+      </c>
+      <c r="F37" t="s">
+        <v>124</v>
+      </c>
+      <c r="G37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38" t="s">
+        <v>125</v>
+      </c>
+      <c r="E38" t="s">
+        <v>126</v>
+      </c>
+      <c r="F38" t="s">
+        <v>127</v>
+      </c>
+      <c r="G38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D39" t="s">
+        <v>128</v>
+      </c>
+      <c r="E39" t="s">
+        <v>129</v>
+      </c>
+      <c r="F39" t="s">
+        <v>130</v>
+      </c>
+      <c r="G39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40" t="s">
+        <v>131</v>
+      </c>
+      <c r="E40" t="s">
+        <v>132</v>
+      </c>
+      <c r="F40" t="s">
+        <v>133</v>
+      </c>
+      <c r="G40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" t="s">
+        <v>44</v>
+      </c>
+      <c r="D41" t="s">
+        <v>134</v>
+      </c>
+      <c r="E41" t="s">
+        <v>135</v>
+      </c>
+      <c r="F41" t="s">
+        <v>136</v>
+      </c>
+      <c r="G41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>69</v>
+      </c>
+      <c r="B42" t="s">
+        <v>70</v>
+      </c>
+      <c r="C42" t="s">
+        <v>44</v>
+      </c>
+      <c r="D42" t="s">
+        <v>137</v>
+      </c>
+      <c r="E42" t="s">
+        <v>138</v>
+      </c>
+      <c r="F42" t="s">
+        <v>139</v>
+      </c>
+      <c r="G42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>69</v>
+      </c>
+      <c r="B43" t="s">
+        <v>70</v>
+      </c>
+      <c r="C43" t="s">
+        <v>44</v>
+      </c>
+      <c r="D43" t="s">
+        <v>140</v>
+      </c>
+      <c r="E43" t="s">
+        <v>141</v>
+      </c>
+      <c r="F43" t="s">
+        <v>142</v>
+      </c>
+      <c r="G43" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" t="s">
+        <v>44</v>
+      </c>
+      <c r="D44" t="s">
+        <v>143</v>
+      </c>
+      <c r="E44" t="s">
+        <v>144</v>
+      </c>
+      <c r="F44" t="s">
+        <v>145</v>
+      </c>
+      <c r="G44" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45" t="s">
+        <v>44</v>
+      </c>
+      <c r="D45" t="s">
+        <v>146</v>
+      </c>
+      <c r="E45" t="s">
+        <v>147</v>
+      </c>
+      <c r="F45" t="s">
+        <v>148</v>
+      </c>
+      <c r="G45" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>42</v>
+      </c>
+      <c r="B46" t="s">
+        <v>43</v>
+      </c>
+      <c r="C46" t="s">
+        <v>44</v>
+      </c>
+      <c r="D46" t="s">
+        <v>149</v>
+      </c>
+      <c r="E46" t="s">
+        <v>150</v>
+      </c>
+      <c r="F46" t="s">
+        <v>151</v>
+      </c>
+      <c r="G46" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>42</v>
+      </c>
+      <c r="B47" t="s">
+        <v>43</v>
+      </c>
+      <c r="C47" t="s">
+        <v>44</v>
+      </c>
+      <c r="D47" t="s">
+        <v>152</v>
+      </c>
+      <c r="E47" t="s">
+        <v>153</v>
+      </c>
+      <c r="F47" t="s">
+        <v>154</v>
+      </c>
+      <c r="G47" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>69</v>
+      </c>
+      <c r="B48" t="s">
+        <v>70</v>
+      </c>
+      <c r="C48" t="s">
+        <v>44</v>
+      </c>
+      <c r="D48" t="s">
+        <v>155</v>
+      </c>
+      <c r="E48" t="s">
+        <v>156</v>
+      </c>
+      <c r="F48" t="s">
+        <v>157</v>
+      </c>
+      <c r="G48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>42</v>
+      </c>
+      <c r="B49" t="s">
+        <v>43</v>
+      </c>
+      <c r="C49" t="s">
+        <v>44</v>
+      </c>
+      <c r="D49" t="s">
+        <v>158</v>
+      </c>
+      <c r="E49" t="s">
+        <v>159</v>
+      </c>
+      <c r="F49" t="s">
+        <v>160</v>
+      </c>
+      <c r="G49" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>69</v>
+      </c>
+      <c r="B50" t="s">
+        <v>70</v>
+      </c>
+      <c r="C50" t="s">
+        <v>44</v>
+      </c>
+      <c r="D50" t="s">
+        <v>161</v>
+      </c>
+      <c r="E50" t="s">
+        <v>162</v>
+      </c>
+      <c r="F50" t="s">
+        <v>163</v>
+      </c>
+      <c r="G50" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>42</v>
+      </c>
+      <c r="B51" t="s">
+        <v>43</v>
+      </c>
+      <c r="C51" t="s">
+        <v>44</v>
+      </c>
+      <c r="D51" t="s">
+        <v>164</v>
+      </c>
+      <c r="E51" t="s">
+        <v>165</v>
+      </c>
+      <c r="F51" t="s">
+        <v>166</v>
+      </c>
+      <c r="G51" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>69</v>
+      </c>
+      <c r="B52" t="s">
+        <v>70</v>
+      </c>
+      <c r="C52" t="s">
+        <v>44</v>
+      </c>
+      <c r="D52" t="s">
+        <v>167</v>
+      </c>
+      <c r="E52" t="s">
+        <v>168</v>
+      </c>
+      <c r="F52" t="s">
+        <v>169</v>
+      </c>
+      <c r="G52" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>42</v>
+      </c>
+      <c r="B53" t="s">
+        <v>43</v>
+      </c>
+      <c r="C53" t="s">
+        <v>44</v>
+      </c>
+      <c r="D53" t="s">
+        <v>170</v>
+      </c>
+      <c r="E53" t="s">
+        <v>171</v>
+      </c>
+      <c r="F53" t="s">
+        <v>172</v>
+      </c>
+      <c r="G53" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>69</v>
+      </c>
+      <c r="B54" t="s">
+        <v>70</v>
+      </c>
+      <c r="C54" t="s">
+        <v>44</v>
+      </c>
+      <c r="D54" t="s">
+        <v>173</v>
+      </c>
+      <c r="E54" t="s">
+        <v>174</v>
+      </c>
+      <c r="F54" t="s">
+        <v>175</v>
+      </c>
+      <c r="G54" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>42</v>
+      </c>
+      <c r="B55" t="s">
+        <v>43</v>
+      </c>
+      <c r="C55" t="s">
+        <v>44</v>
+      </c>
+      <c r="D55" t="s">
+        <v>176</v>
+      </c>
+      <c r="E55" t="s">
+        <v>177</v>
+      </c>
+      <c r="F55" t="s">
+        <v>178</v>
+      </c>
+      <c r="G55" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>69</v>
+      </c>
+      <c r="B56" t="s">
+        <v>70</v>
+      </c>
+      <c r="C56" t="s">
+        <v>44</v>
+      </c>
+      <c r="D56" t="s">
+        <v>179</v>
+      </c>
+      <c r="E56" t="s">
+        <v>180</v>
+      </c>
+      <c r="F56" t="s">
+        <v>181</v>
+      </c>
+      <c r="G56" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>42</v>
+      </c>
+      <c r="B57" t="s">
+        <v>43</v>
+      </c>
+      <c r="C57" t="s">
+        <v>44</v>
+      </c>
+      <c r="D57" t="s">
+        <v>182</v>
+      </c>
+      <c r="E57" t="s">
+        <v>183</v>
+      </c>
+      <c r="F57" t="s">
+        <v>184</v>
+      </c>
+      <c r="G57" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>42</v>
+      </c>
+      <c r="B58" t="s">
+        <v>43</v>
+      </c>
+      <c r="C58" t="s">
+        <v>44</v>
+      </c>
+      <c r="D58" t="s">
+        <v>185</v>
+      </c>
+      <c r="E58" t="s">
+        <v>186</v>
+      </c>
+      <c r="F58" t="s">
+        <v>187</v>
+      </c>
+      <c r="G58" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>42</v>
+      </c>
+      <c r="B59" t="s">
+        <v>43</v>
+      </c>
+      <c r="C59" t="s">
+        <v>44</v>
+      </c>
+      <c r="D59" t="s">
+        <v>188</v>
+      </c>
+      <c r="E59" t="s">
+        <v>189</v>
+      </c>
+      <c r="F59" t="s">
+        <v>190</v>
+      </c>
+      <c r="G59" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>42</v>
+      </c>
+      <c r="B60" t="s">
+        <v>43</v>
+      </c>
+      <c r="C60" t="s">
+        <v>44</v>
+      </c>
+      <c r="D60" t="s">
+        <v>191</v>
+      </c>
+      <c r="E60" t="s">
+        <v>192</v>
+      </c>
+      <c r="F60" t="s">
+        <v>193</v>
+      </c>
+      <c r="G60" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>69</v>
+      </c>
+      <c r="B61" t="s">
+        <v>70</v>
+      </c>
+      <c r="C61" t="s">
+        <v>44</v>
+      </c>
+      <c r="D61" t="s">
+        <v>194</v>
+      </c>
+      <c r="E61" t="s">
+        <v>195</v>
+      </c>
+      <c r="F61" t="s">
+        <v>196</v>
+      </c>
+      <c r="G61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>69</v>
+      </c>
+      <c r="B62" t="s">
+        <v>70</v>
+      </c>
+      <c r="C62" t="s">
+        <v>44</v>
+      </c>
+      <c r="D62" t="s">
+        <v>197</v>
+      </c>
+      <c r="E62" t="s">
+        <v>198</v>
+      </c>
+      <c r="F62" t="s">
+        <v>199</v>
+      </c>
+      <c r="G62" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>69</v>
+      </c>
+      <c r="B63" t="s">
+        <v>70</v>
+      </c>
+      <c r="C63" t="s">
+        <v>44</v>
+      </c>
+      <c r="D63" t="s">
+        <v>200</v>
+      </c>
+      <c r="E63" t="s">
+        <v>201</v>
+      </c>
+      <c r="F63" t="s">
+        <v>202</v>
+      </c>
+      <c r="G63" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>69</v>
+      </c>
+      <c r="B64" t="s">
+        <v>70</v>
+      </c>
+      <c r="C64" t="s">
+        <v>44</v>
+      </c>
+      <c r="D64" t="s">
+        <v>203</v>
+      </c>
+      <c r="E64" t="s">
+        <v>204</v>
+      </c>
+      <c r="F64" t="s">
+        <v>205</v>
+      </c>
+      <c r="G64" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>69</v>
+      </c>
+      <c r="B65" t="s">
+        <v>70</v>
+      </c>
+      <c r="C65" t="s">
+        <v>44</v>
+      </c>
+      <c r="D65" t="s">
+        <v>206</v>
+      </c>
+      <c r="E65" t="s">
+        <v>207</v>
+      </c>
+      <c r="F65" t="s">
+        <v>208</v>
+      </c>
+      <c r="G65" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>42</v>
+      </c>
+      <c r="B66" t="s">
+        <v>43</v>
+      </c>
+      <c r="C66" t="s">
+        <v>44</v>
+      </c>
+      <c r="D66" t="s">
+        <v>209</v>
+      </c>
+      <c r="E66" t="s">
+        <v>210</v>
+      </c>
+      <c r="F66" t="s">
+        <v>211</v>
+      </c>
+      <c r="G66" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>42</v>
+      </c>
+      <c r="B67" t="s">
+        <v>43</v>
+      </c>
+      <c r="C67" t="s">
+        <v>44</v>
+      </c>
+      <c r="D67" t="s">
+        <v>212</v>
+      </c>
+      <c r="E67" t="s">
+        <v>213</v>
+      </c>
+      <c r="F67" t="s">
+        <v>214</v>
+      </c>
+      <c r="G67" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68" t="s">
+        <v>70</v>
+      </c>
+      <c r="C68" t="s">
+        <v>44</v>
+      </c>
+      <c r="D68" t="s">
+        <v>215</v>
+      </c>
+      <c r="E68" t="s">
+        <v>216</v>
+      </c>
+      <c r="F68" t="s">
+        <v>217</v>
+      </c>
+      <c r="G68" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>42</v>
+      </c>
+      <c r="B69" t="s">
+        <v>43</v>
+      </c>
+      <c r="C69" t="s">
+        <v>44</v>
+      </c>
+      <c r="D69" t="s">
+        <v>218</v>
+      </c>
+      <c r="E69" t="s">
+        <v>219</v>
+      </c>
+      <c r="F69" t="s">
+        <v>220</v>
+      </c>
+      <c r="G69" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>42</v>
+      </c>
+      <c r="B70" t="s">
+        <v>43</v>
+      </c>
+      <c r="C70" t="s">
+        <v>44</v>
+      </c>
+      <c r="D70" t="s">
+        <v>221</v>
+      </c>
+      <c r="E70" t="s">
+        <v>222</v>
+      </c>
+      <c r="F70" t="s">
+        <v>223</v>
+      </c>
+      <c r="G70" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>70</v>
+      </c>
+      <c r="C71" t="s">
+        <v>44</v>
+      </c>
+      <c r="D71" t="s">
+        <v>224</v>
+      </c>
+      <c r="E71" t="s">
+        <v>225</v>
+      </c>
+      <c r="F71" t="s">
+        <v>226</v>
+      </c>
+      <c r="G71" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>42</v>
+      </c>
+      <c r="B72" t="s">
+        <v>43</v>
+      </c>
+      <c r="C72" t="s">
+        <v>44</v>
+      </c>
+      <c r="D72" t="s">
+        <v>227</v>
+      </c>
+      <c r="E72" t="s">
+        <v>228</v>
+      </c>
+      <c r="F72" t="s">
+        <v>229</v>
+      </c>
+      <c r="G72" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>42</v>
+      </c>
+      <c r="B73" t="s">
+        <v>43</v>
+      </c>
+      <c r="C73" t="s">
+        <v>44</v>
+      </c>
+      <c r="D73" t="s">
+        <v>230</v>
+      </c>
+      <c r="E73" t="s">
+        <v>231</v>
+      </c>
+      <c r="F73" t="s">
+        <v>232</v>
+      </c>
+      <c r="G73" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>69</v>
+      </c>
+      <c r="B74" t="s">
+        <v>70</v>
+      </c>
+      <c r="C74" t="s">
+        <v>44</v>
+      </c>
+      <c r="D74" t="s">
+        <v>233</v>
+      </c>
+      <c r="E74" t="s">
+        <v>234</v>
+      </c>
+      <c r="F74" t="s">
+        <v>235</v>
+      </c>
+      <c r="G74" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>42</v>
+      </c>
+      <c r="B75" t="s">
+        <v>43</v>
+      </c>
+      <c r="C75" t="s">
+        <v>44</v>
+      </c>
+      <c r="D75" t="s">
+        <v>236</v>
+      </c>
+      <c r="E75" t="s">
+        <v>237</v>
+      </c>
+      <c r="F75" t="s">
+        <v>238</v>
+      </c>
+      <c r="G75" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>42</v>
+      </c>
+      <c r="B76" t="s">
+        <v>43</v>
+      </c>
+      <c r="C76" t="s">
+        <v>44</v>
+      </c>
+      <c r="D76" t="s">
+        <v>239</v>
+      </c>
+      <c r="E76" t="s">
+        <v>240</v>
+      </c>
+      <c r="F76" t="s">
+        <v>241</v>
+      </c>
+      <c r="G76" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>69</v>
+      </c>
+      <c r="B77" t="s">
+        <v>70</v>
+      </c>
+      <c r="C77" t="s">
+        <v>44</v>
+      </c>
+      <c r="D77" t="s">
+        <v>242</v>
+      </c>
+      <c r="E77" t="s">
+        <v>243</v>
+      </c>
+      <c r="F77" t="s">
+        <v>244</v>
+      </c>
+      <c r="G77" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>69</v>
+      </c>
+      <c r="B78" t="s">
+        <v>70</v>
+      </c>
+      <c r="C78" t="s">
+        <v>44</v>
+      </c>
+      <c r="D78" t="s">
+        <v>245</v>
+      </c>
+      <c r="E78" t="s">
+        <v>246</v>
+      </c>
+      <c r="F78" t="s">
+        <v>247</v>
+      </c>
+      <c r="G78" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>42</v>
+      </c>
+      <c r="B79" t="s">
+        <v>43</v>
+      </c>
+      <c r="C79" t="s">
+        <v>44</v>
+      </c>
+      <c r="D79" t="s">
+        <v>248</v>
+      </c>
+      <c r="E79" t="s">
+        <v>249</v>
+      </c>
+      <c r="F79" t="s">
+        <v>250</v>
+      </c>
+      <c r="G79" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>69</v>
+      </c>
+      <c r="B80" t="s">
+        <v>70</v>
+      </c>
+      <c r="C80" t="s">
+        <v>44</v>
+      </c>
+      <c r="D80" t="s">
+        <v>251</v>
+      </c>
+      <c r="E80" t="s">
+        <v>252</v>
+      </c>
+      <c r="F80" t="s">
+        <v>253</v>
+      </c>
+      <c r="G80" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>42</v>
+      </c>
+      <c r="B81" t="s">
+        <v>43</v>
+      </c>
+      <c r="C81" t="s">
+        <v>44</v>
+      </c>
+      <c r="D81" t="s">
+        <v>254</v>
+      </c>
+      <c r="E81" t="s">
+        <v>255</v>
+      </c>
+      <c r="F81" t="s">
+        <v>256</v>
+      </c>
+      <c r="G81" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>69</v>
+      </c>
+      <c r="B82" t="s">
+        <v>70</v>
+      </c>
+      <c r="C82" t="s">
+        <v>44</v>
+      </c>
+      <c r="D82" t="s">
+        <v>257</v>
+      </c>
+      <c r="E82" t="s">
+        <v>258</v>
+      </c>
+      <c r="F82" t="s">
+        <v>259</v>
+      </c>
+      <c r="G82" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>42</v>
+      </c>
+      <c r="B83" t="s">
+        <v>43</v>
+      </c>
+      <c r="C83" t="s">
+        <v>44</v>
+      </c>
+      <c r="D83" t="s">
+        <v>260</v>
+      </c>
+      <c r="E83" t="s">
+        <v>261</v>
+      </c>
+      <c r="F83" t="s">
+        <v>262</v>
+      </c>
+      <c r="G83" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>69</v>
+      </c>
+      <c r="B84" t="s">
+        <v>70</v>
+      </c>
+      <c r="C84" t="s">
+        <v>44</v>
+      </c>
+      <c r="D84" t="s">
+        <v>263</v>
+      </c>
+      <c r="E84" t="s">
+        <v>264</v>
+      </c>
+      <c r="F84" t="s">
+        <v>265</v>
+      </c>
+      <c r="G84" t="s">
         <v>13</v>
       </c>
     </row>
